--- a/Classification/True Labels/CER_ClassificationProcess.xlsx
+++ b/Classification/True Labels/CER_ClassificationProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\True Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A45B3BC-39C2-4A63-8005-5353636D5859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F461EF09-2710-4654-B866-DAACA488C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6490" yWindow="0" windowWidth="19200" windowHeight="15370" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predicted_labels_cer_1" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="353">
   <si>
     <t>text</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Ingenieur, Naturwissenschaftler, Ehrenamtler, Beamter in Niedersachsen. Lebe mit meiner Familie schwerpunktmäßig in Bremen und zeitweise in Niedersachsen.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>#💚 privat hier #Berlinerin</t>
   </si>
   <si>
@@ -107,11 +104,6 @@
   </si>
   <si>
     <t>Mitglied des Landtages Brandenburg - WK 19, liebt Familie, Freiheit und Fairness. LEGO-Coach</t>
-  </si>
-  <si>
-    <t>MdL Landtag MV, Mitglied der Stadtvertretung Neubrandenburg_x000D__x000D_
-it's not easy to be green, hier privat unterwegs_x000D__x000D_
-retweet bedeutet nicht automatisch Zustimmung</t>
   </si>
   <si>
     <t>Rechtsanwältin | Lawyer 💚 Mitglied des Bundestages | Member of Deutscher #Bundestag 🌻 #wk83 #Friedrichshain #Kreuzberg #PBergOst #Berlin</t>
@@ -1214,6 +1206,11 @@
   </si>
   <si>
     <t>🇩🇪 Bundestagsabgeordneter @cdu 🗂🦸 #Versorgungssicherheit 🔋 #Kreislauf ♻️ #Innovation 🚀 &amp; Games 🎮 @vfb ⚪️🔴 Impressum 👇</t>
+  </si>
+  <si>
+    <t>MdL Landtag MV, Mitglied der Stadtvertretung Neubrandenburg_x000D_
+it's not easy to be green, hier privat unterwegs_x000D_
+retweet bedeutet nicht automatisch Zustimmung</t>
   </si>
 </sst>
 </file>
@@ -1249,9 +1246,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1685,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20827AB2-F2FE-4C42-993F-CAF5F4660DD3}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1720,7 +1716,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1731,7 +1727,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1742,7 +1738,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1753,7 +1749,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1764,7 +1760,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1775,7 +1771,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1786,7 +1782,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1797,7 +1793,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1808,7 +1804,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1819,7 +1815,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1830,7 +1826,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1841,7 +1837,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1852,7 +1848,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1863,18 +1859,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1885,7 +1881,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1896,7 +1892,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1907,7 +1903,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1918,7 +1914,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1929,7 +1925,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1940,7 +1936,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1951,7 +1947,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1962,7 +1958,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1973,7 +1969,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1984,7 +1980,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1995,7 +1991,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2006,7 +2002,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2017,7 +2013,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2028,7 +2024,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2039,7 +2035,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2050,7 +2046,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2061,7 +2057,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2072,7 +2068,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2083,7 +2079,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2094,7 +2090,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2105,7 +2101,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2116,7 +2112,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2127,7 +2123,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -2138,7 +2134,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2149,7 +2145,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2160,7 +2156,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2171,7 +2167,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2182,7 +2178,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2193,7 +2189,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -2204,7 +2200,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2215,7 +2211,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2226,7 +2222,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2237,7 +2233,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2248,7 +2244,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2259,7 +2255,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2270,7 +2266,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2281,7 +2277,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2292,7 +2288,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2303,7 +2299,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -2314,7 +2310,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2325,7 +2321,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -2336,7 +2332,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2347,7 +2343,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2358,7 +2354,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2369,7 +2365,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -2380,7 +2376,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2391,7 +2387,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2402,7 +2398,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -2413,7 +2409,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2424,7 +2420,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2435,7 +2431,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2446,7 +2442,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2457,7 +2453,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2468,7 +2464,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2512,772 +2508,772 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>97</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>99</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>101</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>102</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>103</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>104</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>105</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>109</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>110</v>
       </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>111</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>112</v>
       </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>113</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>117</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>120</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>121</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>122</v>
       </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>123</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>125</v>
       </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>126</v>
       </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>127</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>130</v>
       </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>131</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>132</v>
       </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>133</v>
       </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>134</v>
       </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>135</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>140</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>4</v>
       </c>
     </row>
@@ -3316,772 +3312,772 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>145</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>150</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>152</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>156</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>157</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>158</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>161</v>
+      <c r="A19" t="s">
+        <v>159</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>162</v>
+      <c r="A20" t="s">
+        <v>160</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>163</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>164</v>
       </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>167</v>
       </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>168</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>169</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>170</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>171</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>173</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>176</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>177</v>
       </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>178</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>179</v>
       </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>180</v>
       </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>181</v>
       </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>182</v>
       </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>183</v>
       </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>184</v>
       </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>185</v>
       </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>186</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>187</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>188</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>189</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>190</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>191</v>
       </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>192</v>
       </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>193</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>194</v>
       </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>195</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>196</v>
       </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>197</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>198</v>
       </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>199</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>200</v>
       </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>201</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>204</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>205</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>206</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>207</v>
       </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>208</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>209</v>
       </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>210</v>
       </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
@@ -4120,772 +4116,772 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>214</v>
+      <c r="A2" t="s">
+        <v>212</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>215</v>
+      <c r="A3" t="s">
+        <v>213</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>283</v>
+      <c r="A4" t="s">
+        <v>281</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>216</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>217</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>218</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>219</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>220</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>221</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>222</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>223</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>224</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>225</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>228</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>229</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>230</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>231</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>232</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>233</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>234</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>235</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>236</v>
       </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>237</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>238</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>244</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>245</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>246</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>247</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>248</v>
       </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>249</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>250</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>251</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>252</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>253</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>254</v>
       </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B44">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>256</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>257</v>
       </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>258</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>259</v>
       </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>260</v>
       </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>261</v>
       </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>262</v>
       </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>263</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>264</v>
       </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>265</v>
       </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>266</v>
       </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>267</v>
       </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>268</v>
       </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>269</v>
       </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>270</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>271</v>
       </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>272</v>
       </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>273</v>
       </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>274</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>275</v>
       </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>276</v>
       </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>277</v>
       </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>278</v>
       </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>279</v>
       </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>280</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>5</v>
       </c>
     </row>
@@ -4901,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FC6173-700E-4D06-BB04-093E78D41A5D}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
@@ -4924,772 +4920,772 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>284</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>285</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>286</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>287</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>288</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>289</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>290</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>291</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>292</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>293</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>294</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>295</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>296</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>297</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>298</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>299</v>
       </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>300</v>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>301</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>302</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>303</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>304</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>305</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>306</v>
       </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>307</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>308</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>309</v>
       </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>310</v>
       </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>311</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>312</v>
       </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>313</v>
       </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>314</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>315</v>
       </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>316</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>317</v>
       </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>318</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>319</v>
       </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>320</v>
       </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>321</v>
       </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>322</v>
       </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>323</v>
       </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>324</v>
       </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>325</v>
       </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>326</v>
       </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>327</v>
       </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>328</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>329</v>
       </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>330</v>
       </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>331</v>
       </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>332</v>
       </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>333</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>334</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>336</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>337</v>
       </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>338</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>341</v>
       </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>342</v>
       </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>343</v>
       </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>344</v>
       </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>345</v>
       </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>346</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>347</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>348</v>
       </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>349</v>
       </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>350</v>
       </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>351</v>
       </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="B71">
         <v>3</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>3</v>
       </c>
     </row>

--- a/Classification/True Labels/CER_ClassificationProcess.xlsx
+++ b/Classification/True Labels/CER_ClassificationProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\True Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F461EF09-2710-4654-B866-DAACA488C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E1D41-CDA7-4F56-8888-F7058057C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predicted_labels_cer_1" sheetId="2" r:id="rId1"/>
@@ -492,9 +492,6 @@
     <t>Liberaler im Kopf und im Herzen. Fraktionsvorsitzender der Freien Demokraten im Landtag Rheinland-Pfalz. Twittere hier meine persönliche Meinung.</t>
   </si>
   <si>
-    <t>Wir streiten für mutige, faire, nachhaltige und fortschrittliche Politik. Deutschlands sozialliberale Partei. 🗽⚖️🌿🚀Impressum: https://t.co/q7zMc8FMmj</t>
-  </si>
-  <si>
     <t>Jüngster MdL Bayern &amp; Fraktionsvize 🌻 | stv. Vorsitzender Untersuchungsausschuss Maske | member @Greens_CoR | kämpft für 🇪🇺 🏳️‍🌈 | Chemiker</t>
   </si>
   <si>
@@ -734,9 +731,6 @@
     <t>Stellvertretende Ministerpräsidentin Niedersachsens, Kultusministerin und direkt gewählte grüne Landtagsabgeordnete für den Wahlkreis Hannover-Mitte.</t>
   </si>
   <si>
-    <t>Tiere, Klima, Gerechtigkeit.#vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
-  </si>
-  <si>
     <t>Hier twittert das Bayerische #Staatsministerium für #Umwelt und #Verbraucherschutz. Das erste Umweltministerium in Deutschland und weltweit!</t>
   </si>
   <si>
@@ -960,9 +954,6 @@
   </si>
   <si>
     <t>2016 AfD-Landtags-Direktmandat Mannheim I (Wahlkreis 35). 2021 im Wahlkreis 55 Tuttlingen-Donaueschingen wieder in den Landtag gewählt.</t>
-  </si>
-  <si>
-    <t>Hier twittert die politische Partei Wir BürgerLiberal.Konservativ. Impressum:https://t.co/GIji6KOj2xhttps://t.co/MtcOh7Up4b</t>
   </si>
   <si>
     <t>Bundestagsabgeordneter, Wahlkreis Starnberg-Landsberg, #CSU, Mitglied in den Ausschüssen für Umwelt und für Bau, Wohnen, Kommune und Stadtentwicklung</t>
@@ -1211,6 +1202,15 @@
     <t>MdL Landtag MV, Mitglied der Stadtvertretung Neubrandenburg_x000D_
 it's not easy to be green, hier privat unterwegs_x000D_
 retweet bedeutet nicht automatisch Zustimmung</t>
+  </si>
+  <si>
+    <t>Tiere, Klima, Gerechtigkeit. #vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
+  </si>
+  <si>
+    <t>Hier twittert die politische Partei Wir Bürger Liberal.Konservativ. Impressum:https://t.co/GIji6KOj2xhttps://t.co/MtcOh7Up2b</t>
+  </si>
+  <si>
+    <t>Wir streiten für mutige, faire, nachhaltige und fortschrittliche Politik. Deutschlands sozialliberale Partei. 🗽⚖️🌿🚀 Impressum: https://t.co/q7zMc8FMmj</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20827AB2-F2FE-4C42-993F-CAF5F4660DD3}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2485,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E45983-6422-47C0-934D-F27468E3BBE5}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3290,7 +3290,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4093,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DDD89D-C8C6-403D-A0DD-04B99132BC72}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B71">
         <v>3</v>
